--- a/test-files/inputs/Input-1.xlsx
+++ b/test-files/inputs/Input-1.xlsx
@@ -4,78 +4,171 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="8445" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LaRenga" sheetId="1" r:id="rId1"/>
-    <sheet name="LosRedondos" sheetId="2" r:id="rId2"/>
-    <sheet name="Divididos" sheetId="3" r:id="rId3"/>
+    <sheet name="SheetOne" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetTwo" sheetId="2" r:id="rId2"/>
+    <sheet name="SheetThree" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Comprobante</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>RUT</t>
-  </si>
-  <si>
-    <t>Moneda</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Exento</t>
-  </si>
-  <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Iva</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>CONTADO M1</t>
-  </si>
-  <si>
-    <t>CONTADO M2</t>
-  </si>
-  <si>
-    <t>CONTADO M3</t>
-  </si>
-  <si>
-    <t>CONTADO M4</t>
-  </si>
-  <si>
-    <t>ETE</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>VALERIA LINCH</t>
-  </si>
-  <si>
-    <t>NO SOCIO</t>
-  </si>
-  <si>
-    <t>INES KRAULE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>Col4</t>
+  </si>
+  <si>
+    <t>Col5</t>
+  </si>
+  <si>
+    <t>Col6</t>
+  </si>
+  <si>
+    <t>Col7</t>
+  </si>
+  <si>
+    <t>Col8</t>
+  </si>
+  <si>
+    <t>Col9</t>
+  </si>
+  <si>
+    <t>Col10</t>
+  </si>
+  <si>
+    <t>Col1Val1</t>
+  </si>
+  <si>
+    <t>Col1Val2</t>
+  </si>
+  <si>
+    <t>Col1Val3</t>
+  </si>
+  <si>
+    <t>Col1Val4</t>
+  </si>
+  <si>
+    <t>Col2Val1</t>
+  </si>
+  <si>
+    <t>Col2Val2</t>
+  </si>
+  <si>
+    <t>Col2Val3</t>
+  </si>
+  <si>
+    <t>Col2Val4</t>
+  </si>
+  <si>
+    <t>Col3Val1</t>
+  </si>
+  <si>
+    <t>Col3Val2</t>
+  </si>
+  <si>
+    <t>Col3Val3</t>
+  </si>
+  <si>
+    <t>Col3Val4</t>
+  </si>
+  <si>
+    <t>Col4Val1</t>
+  </si>
+  <si>
+    <t>Col4Val2</t>
+  </si>
+  <si>
+    <t>Col4Val3</t>
+  </si>
+  <si>
+    <t>Col4Val4</t>
+  </si>
+  <si>
+    <t>Col5Val1</t>
+  </si>
+  <si>
+    <t>Col5Val2</t>
+  </si>
+  <si>
+    <t>Col5Val3</t>
+  </si>
+  <si>
+    <t>Col5Val4</t>
+  </si>
+  <si>
+    <t>Col6Val1</t>
+  </si>
+  <si>
+    <t>Col6Val2</t>
+  </si>
+  <si>
+    <t>Col6Val3</t>
+  </si>
+  <si>
+    <t>Col6Val4</t>
+  </si>
+  <si>
+    <t>Col7Val1</t>
+  </si>
+  <si>
+    <t>Col7Val2</t>
+  </si>
+  <si>
+    <t>Col7Val3</t>
+  </si>
+  <si>
+    <t>Col7Val4</t>
+  </si>
+  <si>
+    <t>Col8Val1</t>
+  </si>
+  <si>
+    <t>Col8Val2</t>
+  </si>
+  <si>
+    <t>Col8Val3</t>
+  </si>
+  <si>
+    <t>Col8Val4</t>
+  </si>
+  <si>
+    <t>Col9Val1</t>
+  </si>
+  <si>
+    <t>Col9Val2</t>
+  </si>
+  <si>
+    <t>Col9Val3</t>
+  </si>
+  <si>
+    <t>Col9Val4</t>
+  </si>
+  <si>
+    <t>Col10Val1</t>
+  </si>
+  <si>
+    <t>Col10Val2</t>
+  </si>
+  <si>
+    <t>Col10Val3</t>
+  </si>
+  <si>
+    <t>Col10Val4</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -453,197 +546,206 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43435</v>
+        <v>43814</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>1323</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1170</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1427</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43436</v>
+        <v>43815</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>1323</v>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>386.7</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>90.16</v>
-      </c>
-      <c r="O3" s="3">
-        <v>500</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43437</v>
+        <v>43816</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1323</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="K4">
-        <v>897.43</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>85.39</v>
-      </c>
-      <c r="O4" s="3">
-        <v>590</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43438</v>
+        <v>43817</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>1323</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>545.47333333333404</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1427</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -823,191 +925,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43462</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>1323</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1170</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43463</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>1323</v>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>386.7</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>90.16</v>
-      </c>
-      <c r="O3" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43464</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1323</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="K4">
-        <v>897.43</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>85.39</v>
-      </c>
-      <c r="O4" s="3">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>1323</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>545.47333333333404</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1427</v>
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1020,192 +1131,205 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43449</v>
+        <v>43814</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>1323</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1170</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1427</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43450</v>
+        <v>43815</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>1323</v>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>386.7</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>90.16</v>
-      </c>
-      <c r="O3" s="3">
-        <v>500</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43451</v>
+        <v>43816</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1323</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="K4">
-        <v>897.43</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>85.39</v>
-      </c>
-      <c r="O4" s="3">
-        <v>590</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43452</v>
+        <v>43817</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>1323</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>545.47333333333404</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1427</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
